--- a/Excel/Excel.xlsx
+++ b/Excel/Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yigitemre/Desktop/scoutingapp-main/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yigitemre/Desktop/6838scout/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ACF314-DBC0-1D4C-BCC8-B76E77EA75C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8970125-F3DB-2A46-8367-21544B92196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
   <sheets>
     <sheet name="Insert" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Scouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,19 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Match #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,6 +141,15 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Match Level #</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -586,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0977C36-33F4-4B0D-9C5F-2DAE4DD4F224}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AP70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AC1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,79 +607,79 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="3"/>
@@ -692,7 +693,7 @@
     </row>
     <row r="2" spans="1:42" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B2:AB2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
@@ -1581,6 +1582,1689 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
     </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
+        <v/>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
+        <v/>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
+        <v/>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
+        <v/>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
+        <v/>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
+        <v/>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
+        <v/>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
+        <v/>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
+        <v/>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
+        <v/>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
+        <v/>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
+        <v/>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
+        <v/>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
+        <v/>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
+        <v/>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
+        <v/>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
+        <v/>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
+        <v/>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
+        <v/>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
+        <v/>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
+        <v/>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
+        <v/>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
+        <v/>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
+        <v/>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
+        <v/>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
+        <v/>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
+        <v/>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
+        <v/>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
+        <v/>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
+        <v/>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
+        <v/>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
+        <v/>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
+        <v/>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
+        <v/>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
+        <v/>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
+        <v/>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
+        <v/>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
+        <v/>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
+        <v/>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
+        <v/>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
+        <v/>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
+        <v/>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
+        <v/>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
+        <v/>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
+        <v/>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
   <dimension ref="A1:AP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1614,79 +3298,79 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="3"/>

--- a/Excel/Excel.xlsx
+++ b/Excel/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yigitemre/Desktop/6838scout/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yigit\Desktop\ScoutingApp6838\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8970125-F3DB-2A46-8367-21544B92196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821CF57-702F-4D62-B17E-93941376B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
   <sheets>
     <sheet name="Insert" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Scouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,12 +151,15 @@
   <si>
     <t>Team</t>
   </si>
+  <si>
+    <t>s=Yiğit Emre Çulcuoğlu;e=2022 İzmir Regional;l=f;m=1;r=b2;t=6838;as=[54];at=Y;au=8;al=3;ac=Y;tu=5;tl=6;tm=1;tn=2;wd=Y;cl=b;ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34];c=4;be=Y;cn=1;ds=v;dr=v;d=N;to=N;cf=N;co=Commen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,16 +593,16 @@
   <dimension ref="A1:AP70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="29" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +694,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="20.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -817,7 +820,7 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A3,";",REPT(" ",LEN(A3)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A3)-LEN(SUBSTITUTE(A3,";",""))+1))*LEN(A3)+1,LEN(A3)+1)))</f>
         <v/>
@@ -862,37 +865,118 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
-        <v/>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+        <f t="array" aca="1" ref="B4:AB4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
+        <v>s=Yiğit Emre Çulcuoğlu</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1"/>
+        <v>e=2022 İzmir Regional</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f ca="1"/>
+        <v>l=f</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f ca="1"/>
+        <v>m=1</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f ca="1"/>
+        <v>r=b2</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1"/>
+        <v>t=6838</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f ca="1"/>
+        <v>as=[54]</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f ca="1"/>
+        <v>at=Y</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f ca="1"/>
+        <v>au=8</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f ca="1"/>
+        <v>al=3</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f ca="1"/>
+        <v>ac=Y</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f ca="1"/>
+        <v>tu=5</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f ca="1"/>
+        <v>tl=6</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f ca="1"/>
+        <v>tm=1</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f ca="1"/>
+        <v>tn=2</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f ca="1"/>
+        <v>wd=Y</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f ca="1"/>
+        <v>cl=b</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f ca="1"/>
+        <v>ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34]</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f ca="1"/>
+        <v>c=4</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f ca="1"/>
+        <v>be=Y</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f ca="1"/>
+        <v>cn=1</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f ca="1"/>
+        <v>ds=v</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f ca="1"/>
+        <v>dr=v</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f ca="1"/>
+        <v>d=N</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f ca="1"/>
+        <v>to=N</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f ca="1"/>
+        <v>cf=N</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f ca="1"/>
+        <v>co=Commen</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -907,7 +991,7 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A5,";",REPT(" ",LEN(A5)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A5)-LEN(SUBSTITUTE(A5,";",""))+1))*LEN(A5)+1,LEN(A5)+1)))</f>
         <v/>
@@ -952,7 +1036,7 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A6,";",REPT(" ",LEN(A6)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A6)-LEN(SUBSTITUTE(A6,";",""))+1))*LEN(A6)+1,LEN(A6)+1)))</f>
         <v/>
@@ -997,7 +1081,7 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A7,";",REPT(" ",LEN(A7)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A7)-LEN(SUBSTITUTE(A7,";",""))+1))*LEN(A7)+1,LEN(A7)+1)))</f>
         <v/>
@@ -1042,7 +1126,7 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A8,";",REPT(" ",LEN(A8)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A8)-LEN(SUBSTITUTE(A8,";",""))+1))*LEN(A8)+1,LEN(A8)+1)))</f>
         <v/>
@@ -1087,7 +1171,7 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A9,";",REPT(" ",LEN(A9)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A9)-LEN(SUBSTITUTE(A9,";",""))+1))*LEN(A9)+1,LEN(A9)+1)))</f>
         <v/>
@@ -1132,7 +1216,7 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A10,";",REPT(" ",LEN(A10)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A10)-LEN(SUBSTITUTE(A10,";",""))+1))*LEN(A10)+1,LEN(A10)+1)))</f>
         <v/>
@@ -1177,7 +1261,7 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A11,";",REPT(" ",LEN(A11)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A11)-LEN(SUBSTITUTE(A11,";",""))+1))*LEN(A11)+1,LEN(A11)+1)))</f>
         <v/>
@@ -1222,7 +1306,7 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42">
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A12,";",REPT(" ",LEN(A12)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A12)-LEN(SUBSTITUTE(A12,";",""))+1))*LEN(A12)+1,LEN(A12)+1)))</f>
         <v/>
@@ -1267,7 +1351,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42">
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
         <v/>
@@ -1312,7 +1396,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
         <v/>
@@ -1357,7 +1441,7 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
         <v/>
@@ -1402,7 +1486,7 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
         <v/>
@@ -1447,7 +1531,7 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42">
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
         <v/>
@@ -1492,7 +1576,7 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:42">
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
         <v/>
@@ -1537,7 +1621,7 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:42">
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
         <v/>
@@ -1582,7 +1666,7 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:42">
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
         <v/>
@@ -1615,7 +1699,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:42">
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
         <v/>
@@ -1648,7 +1732,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:42">
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
         <v/>
@@ -1681,7 +1765,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:42">
       <c r="B23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
         <v/>
@@ -1714,7 +1798,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:42">
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
         <v/>
@@ -1747,7 +1831,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:42">
       <c r="B25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
         <v/>
@@ -1780,7 +1864,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:42">
       <c r="B26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
         <v/>
@@ -1813,7 +1897,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:42">
       <c r="B27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
         <v/>
@@ -1846,7 +1930,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:42">
       <c r="B28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
         <v/>
@@ -1879,7 +1963,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:42">
       <c r="B29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
         <v/>
@@ -1912,7 +1996,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:42">
       <c r="B30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
         <v/>
@@ -1945,7 +2029,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:42">
       <c r="B31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
         <v/>
@@ -1978,7 +2062,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:42">
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
         <v/>
@@ -2011,7 +2095,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
         <v/>
@@ -2044,7 +2128,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
         <v/>
@@ -2077,7 +2161,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
         <v/>
@@ -2110,7 +2194,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
         <v/>
@@ -2143,7 +2227,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
         <v/>
@@ -2176,7 +2260,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
         <v/>
@@ -2209,7 +2293,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29">
       <c r="B39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
         <v/>
@@ -2242,7 +2326,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
         <v/>
@@ -2275,7 +2359,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29">
       <c r="B41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
         <v/>
@@ -2308,7 +2392,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29">
       <c r="B42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
         <v/>
@@ -2341,7 +2425,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
         <v/>
@@ -2374,7 +2458,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29">
       <c r="B44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
         <v/>
@@ -2407,7 +2491,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29">
       <c r="B45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
         <v/>
@@ -2440,7 +2524,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29">
       <c r="B46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
         <v/>
@@ -2473,7 +2557,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29">
       <c r="B47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
         <v/>
@@ -2506,7 +2590,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29">
       <c r="B48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
         <v/>
@@ -2539,7 +2623,7 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29">
       <c r="B49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
         <v/>
@@ -2572,7 +2656,7 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29">
       <c r="B50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
         <v/>
@@ -2605,7 +2689,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29">
       <c r="B51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
         <v/>
@@ -2638,7 +2722,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29">
       <c r="B52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
         <v/>
@@ -2671,7 +2755,7 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29">
       <c r="B53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
         <v/>
@@ -2704,7 +2788,7 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29">
       <c r="B54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
         <v/>
@@ -2737,7 +2821,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29">
       <c r="B55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
         <v/>
@@ -2770,7 +2854,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29">
       <c r="B56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
         <v/>
@@ -2803,7 +2887,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29">
       <c r="B57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
         <v/>
@@ -2836,7 +2920,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29">
       <c r="B58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
         <v/>
@@ -2869,7 +2953,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29">
       <c r="B59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
         <v/>
@@ -2902,7 +2986,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29">
       <c r="B60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
         <v/>
@@ -2935,7 +3019,7 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29">
       <c r="B61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
         <v/>
@@ -2968,7 +3052,7 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29">
       <c r="B62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
         <v/>
@@ -3001,7 +3085,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
         <v/>
@@ -3034,7 +3118,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
         <v/>
@@ -3067,7 +3151,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29">
       <c r="B65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
         <v/>
@@ -3100,7 +3184,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29">
       <c r="B66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
         <v/>
@@ -3133,7 +3217,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29">
       <c r="B67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
         <v/>
@@ -3166,7 +3250,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29">
       <c r="B68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
         <v/>
@@ -3199,7 +3283,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29">
       <c r="B69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
         <v/>
@@ -3232,7 +3316,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29">
       <c r="B70" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
         <v/>
@@ -3280,13 +3364,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="29" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1">
         <f>Insert!A1</f>
         <v>0</v>
@@ -3387,7 +3471,7 @@
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" t="str">
         <f>Insert!A2</f>
         <v>s=Name Surname;e=2022 Izmir Regional;l=f;m=1;r=r1;t=6838;as=[42];at=Y;au=3;al=2;ac=Y;tu=4;tl=2;tm=1;tn=2;wd=Y;cl=t;ss=[19,11,33,21,71,56];c=3;be=Y;cn=2;ds=v;dr=v;d=N;to=N;cf=Y;co=Abi Gerçekten Çok güzel olmuş site</v>
@@ -3515,7 +3599,7 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3">
         <f>Insert!A3</f>
         <v>0</v>
@@ -3567,41 +3651,119 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:42">
+      <c r="A4" t="str">
         <f>Insert!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="e" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+        <v>s=Yiğit Emre Çulcuoğlu;e=2022 İzmir Regional;l=f;m=1;r=b2;t=6838;as=[54];at=Y;au=8;al=3;ac=Y;tu=5;tl=6;tm=1;tn=2;wd=Y;cl=b;ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34];c=4;be=Y;cn=1;ds=v;dr=v;d=N;to=N;cf=N;co=Commen</v>
+      </c>
+      <c r="B4" s="1" t="str" cm="1">
+        <f t="array" aca="1" ref="B4:AB4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
+        <v>Yiğit Emre Çulcuoğlu</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1"/>
+        <v>2022 İzmir Regional</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f ca="1"/>
+        <v>f</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f ca="1"/>
+        <v>b2</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1"/>
+        <v>6838</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f ca="1"/>
+        <v>[54]</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f ca="1"/>
+        <v>b</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f ca="1"/>
+        <v>[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34]</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f ca="1"/>
+        <v>Y</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f ca="1"/>
+        <v>v</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f ca="1"/>
+        <v>v</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f ca="1"/>
+        <v>N</v>
+      </c>
+      <c r="AB4" s="1" t="str">
+        <f ca="1"/>
+        <v>Commen</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -3617,7 +3779,7 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5">
         <f>Insert!A5</f>
         <v>0</v>
@@ -3667,7 +3829,7 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6">
         <f>Insert!A6</f>
         <v>0</v>
@@ -3717,7 +3879,7 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7">
         <f>Insert!A7</f>
         <v>0</v>
@@ -3767,7 +3929,7 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42">
       <c r="A8">
         <f>Insert!A8</f>
         <v>0</v>
@@ -3817,7 +3979,7 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="A9">
         <f>Insert!A9</f>
         <v>0</v>
@@ -3867,7 +4029,7 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10">
         <f>Insert!A10</f>
         <v>0</v>
@@ -3917,7 +4079,7 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42">
       <c r="A11">
         <f>Insert!A11</f>
         <v>0</v>
@@ -3967,7 +4129,7 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42">
       <c r="A12">
         <f>Insert!A12</f>
         <v>0</v>
@@ -4017,7 +4179,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42">
       <c r="A13">
         <f>Insert!A13</f>
         <v>0</v>
@@ -4067,7 +4229,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14">
         <f>Insert!A14</f>
         <v>0</v>
@@ -4117,7 +4279,7 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="A15">
         <f>Insert!A15</f>
         <v>0</v>
@@ -4167,7 +4329,7 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16">
         <f>Insert!A16</f>
         <v>0</v>
@@ -4217,7 +4379,7 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17">
         <f>Insert!A17</f>
         <v>0</v>
@@ -4267,7 +4429,7 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18">
         <f>Insert!A18</f>
         <v>0</v>
@@ -4317,7 +4479,7 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19">
         <f>Insert!A19</f>
         <v>0</v>

--- a/Excel/Excel.xlsx
+++ b/Excel/Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yigit\Desktop\ScoutingApp6838\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\6838scout\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821CF57-702F-4D62-B17E-93941376B362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8326B072-6C9E-41B2-ABFA-6573167CAC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A46E49DD-D669-429F-AA31-B068C359770D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Scouter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,9 +81,6 @@
   <si>
     <t>Was Defended</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s=Name Surname;e=2022 Izmir Regional;l=f;m=1;r=r1;t=6838;as=[42];at=Y;au=3;al=2;ac=Y;tu=4;tl=2;tm=1;tn=2;wd=Y;cl=t;ss=[19,11,33,21,71,56];c=3;be=Y;cn=2;ds=v;dr=v;d=N;to=N;cf=Y;co=Abi Gerçekten Çok güzel olmuş site</t>
   </si>
   <si>
     <t>M Upper Cargo Scored</t>
@@ -152,7 +149,7 @@
     <t>Team</t>
   </si>
   <si>
-    <t>s=Yiğit Emre Çulcuoğlu;e=2022 İzmir Regional;l=f;m=1;r=b2;t=6838;as=[54];at=Y;au=8;al=3;ac=Y;tu=5;tl=6;tm=1;tn=2;wd=Y;cl=b;ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34];c=4;be=Y;cn=1;ds=v;dr=v;d=N;to=N;cf=N;co=Commen</t>
+    <t>Team Name</t>
   </si>
 </sst>
 </file>
@@ -593,7 +590,7 @@
   <dimension ref="A1:AP70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -610,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -619,28 +616,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>9</v>
@@ -649,43 +646,45 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="3"/>
+      <c r="AD1" s="5"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -693,119 +692,40 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:42" ht="20.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B2:AB2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
-        <v>s=Name Surname</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f ca="1"/>
-        <v>e=2022 Izmir Regional</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f ca="1"/>
-        <v>l=f</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f ca="1"/>
-        <v>m=1</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f ca="1"/>
-        <v>r=r1</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f ca="1"/>
-        <v>t=6838</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f ca="1"/>
-        <v>as=[42]</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f ca="1"/>
-        <v>at=Y</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f ca="1"/>
-        <v>au=3</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f ca="1"/>
-        <v>al=2</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f ca="1"/>
-        <v>ac=Y</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f ca="1"/>
-        <v>tu=4</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f ca="1"/>
-        <v>tl=2</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <f ca="1"/>
-        <v>tm=1</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f ca="1"/>
-        <v>tn=2</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <f ca="1"/>
-        <v>wd=Y</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f ca="1"/>
-        <v>cl=t</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <f ca="1"/>
-        <v>ss=[19,11,33,21,71,56]</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <f ca="1"/>
-        <v>c=3</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <f ca="1"/>
-        <v>be=Y</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <f ca="1"/>
-        <v>cn=2</v>
-      </c>
-      <c r="W2" s="1" t="str">
-        <f ca="1"/>
-        <v>ds=v</v>
-      </c>
-      <c r="X2" s="1" t="str">
-        <f ca="1"/>
-        <v>dr=v</v>
-      </c>
-      <c r="Y2" s="1" t="str">
-        <f ca="1"/>
-        <v>d=N</v>
-      </c>
-      <c r="Z2" s="1" t="str">
-        <f ca="1"/>
-        <v>to=N</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <f ca="1"/>
-        <v>cf=Y</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <f ca="1"/>
-        <v>co=Abi Gerçekten Çok güzel olmuş site</v>
-      </c>
+        <f t="array" aca="1" ref="B2" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A2,";",REPT(" ",LEN(A2)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A2)-LEN(SUBSTITUTE(A2,";",""))+1))*LEN(A2)+1,LEN(A2)+1)))</f>
+        <v/>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -866,117 +786,36 @@
       <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
       <c r="B4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B4:AB4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
-        <v>s=Yiğit Emre Çulcuoğlu</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f ca="1"/>
-        <v>e=2022 İzmir Regional</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f ca="1"/>
-        <v>l=f</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f ca="1"/>
-        <v>m=1</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f ca="1"/>
-        <v>r=b2</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f ca="1"/>
-        <v>t=6838</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f ca="1"/>
-        <v>as=[54]</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f ca="1"/>
-        <v>at=Y</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f ca="1"/>
-        <v>au=8</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f ca="1"/>
-        <v>al=3</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f ca="1"/>
-        <v>ac=Y</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f ca="1"/>
-        <v>tu=5</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f ca="1"/>
-        <v>tl=6</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f ca="1"/>
-        <v>tm=1</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <f ca="1"/>
-        <v>tn=2</v>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <f ca="1"/>
-        <v>wd=Y</v>
-      </c>
-      <c r="R4" s="1" t="str">
-        <f ca="1"/>
-        <v>cl=b</v>
-      </c>
-      <c r="S4" s="1" t="str">
-        <f ca="1"/>
-        <v>ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34]</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f ca="1"/>
-        <v>c=4</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <f ca="1"/>
-        <v>be=Y</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <f ca="1"/>
-        <v>cn=1</v>
-      </c>
-      <c r="W4" s="1" t="str">
-        <f ca="1"/>
-        <v>ds=v</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <f ca="1"/>
-        <v>dr=v</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f ca="1"/>
-        <v>d=N</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <f ca="1"/>
-        <v>to=N</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <f ca="1"/>
-        <v>cf=N</v>
-      </c>
-      <c r="AB4" s="1" t="str">
-        <f ca="1"/>
-        <v>co=Commen</v>
-      </c>
+        <f t="array" aca="1" ref="B4" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A4,";",REPT(" ",LEN(A4)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A4)-LEN(SUBSTITUTE(A4,";",""))+1))*LEN(A4)+1,LEN(A4)+1)))</f>
+        <v/>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -3358,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1048276-8A82-4E9E-96B8-21ABC897CB97}">
-  <dimension ref="A1:AP19"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3370,7 +3209,7 @@
     <col min="2" max="29" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1">
         <f>Insert!A1</f>
         <v>0</v>
@@ -3382,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3391,28 +3230,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>9</v>
@@ -3421,43 +3260,45 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="3"/>
+      <c r="AD1" s="5"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -3470,120 +3311,43 @@
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" t="str">
+      <c r="AQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2">
         <f>Insert!A2</f>
-        <v>s=Name Surname;e=2022 Izmir Regional;l=f;m=1;r=r1;t=6838;as=[42];at=Y;au=3;al=2;ac=Y;tu=4;tl=2;tm=1;tn=2;wd=Y;cl=t;ss=[19,11,33,21,71,56];c=3;be=Y;cn=2;ds=v;dr=v;d=N;to=N;cf=Y;co=Abi Gerçekten Çok güzel olmuş site</v>
-      </c>
-      <c r="B2" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B2:AB2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
-        <v>Name Surname</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f ca="1"/>
-        <v>2022 Izmir Regional</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f ca="1"/>
-        <v>f</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f ca="1"/>
-        <v>r1</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f ca="1"/>
-        <v>6838</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f ca="1"/>
-        <v>[42]</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="str">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="R2" s="1" t="str">
-        <f ca="1"/>
-        <v>t</v>
-      </c>
-      <c r="S2" s="1" t="str">
-        <f ca="1"/>
-        <v>[19,11,33,21,71,56]</v>
-      </c>
-      <c r="T2" s="1" t="str">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="U2" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="V2" s="1" t="str">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="W2" s="1" t="str">
-        <f ca="1"/>
-        <v>v</v>
-      </c>
-      <c r="X2" s="1" t="str">
-        <f ca="1"/>
-        <v>v</v>
-      </c>
-      <c r="Y2" s="1" t="str">
-        <f ca="1"/>
-        <v>N</v>
-      </c>
-      <c r="Z2" s="1" t="str">
-        <f ca="1"/>
-        <v>N</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="AB2" s="1" t="str">
-        <f ca="1"/>
-        <v>Abi Gerçekten Çok güzel olmuş site</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B2), LEN(_xlfn.ANCHORARRAY(Insert!B2)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B2)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -3599,7 +3363,7 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43">
       <c r="A3">
         <f>Insert!A3</f>
         <v>0</v>
@@ -3613,9 +3377,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3651,119 +3413,41 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:42">
-      <c r="A4" t="str">
+    <row r="4" spans="1:43">
+      <c r="A4">
         <f>Insert!A4</f>
-        <v>s=Yiğit Emre Çulcuoğlu;e=2022 İzmir Regional;l=f;m=1;r=b2;t=6838;as=[54];at=Y;au=8;al=3;ac=Y;tu=5;tl=6;tm=1;tn=2;wd=Y;cl=b;ss=[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34];c=4;be=Y;cn=1;ds=v;dr=v;d=N;to=N;cf=N;co=Commen</v>
-      </c>
-      <c r="B4" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="B4:AB4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
-        <v>Yiğit Emre Çulcuoğlu</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f ca="1"/>
-        <v>2022 İzmir Regional</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f ca="1"/>
-        <v>f</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f ca="1"/>
-        <v>b2</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f ca="1"/>
-        <v>6838</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f ca="1"/>
-        <v>[54]</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="str">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="R4" s="1" t="str">
-        <f ca="1"/>
-        <v>b</v>
-      </c>
-      <c r="S4" s="1" t="str">
-        <f ca="1"/>
-        <v>[53,56,44,58,34,20,17,18,41,51,51,16,26,50,64,68,34]</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <f ca="1"/>
-        <v>Y</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="str">
-        <f ca="1"/>
-        <v>v</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <f ca="1"/>
-        <v>v</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f ca="1"/>
-        <v>N</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <f ca="1"/>
-        <v>N</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <f ca="1"/>
-        <v>N</v>
-      </c>
-      <c r="AB4" s="1" t="str">
-        <f ca="1"/>
-        <v>Commen</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="e" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">RIGHT(_xlfn.ANCHORARRAY(Insert!B4), LEN(_xlfn.ANCHORARRAY(Insert!B4)) - FIND("=",_xlfn.ANCHORARRAY( Insert!B4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -3779,7 +3463,7 @@
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:43">
       <c r="A5">
         <f>Insert!A5</f>
         <v>0</v>
@@ -3829,7 +3513,7 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:43">
       <c r="A6">
         <f>Insert!A6</f>
         <v>0</v>
@@ -3879,7 +3563,7 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:43">
       <c r="A7">
         <f>Insert!A7</f>
         <v>0</v>
@@ -3929,7 +3613,7 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:43">
       <c r="A8">
         <f>Insert!A8</f>
         <v>0</v>
@@ -3979,7 +3663,7 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:43">
       <c r="A9">
         <f>Insert!A9</f>
         <v>0</v>
@@ -4029,7 +3713,7 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:43">
       <c r="A10">
         <f>Insert!A10</f>
         <v>0</v>
@@ -4079,7 +3763,7 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:43">
       <c r="A11">
         <f>Insert!A11</f>
         <v>0</v>
@@ -4129,7 +3813,7 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:43">
       <c r="A12">
         <f>Insert!A12</f>
         <v>0</v>
@@ -4179,7 +3863,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:43">
       <c r="A13">
         <f>Insert!A13</f>
         <v>0</v>
@@ -4229,7 +3913,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:43">
       <c r="A14">
         <f>Insert!A14</f>
         <v>0</v>
@@ -4279,7 +3963,7 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:43">
       <c r="A15">
         <f>Insert!A15</f>
         <v>0</v>
@@ -4329,7 +4013,7 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:43">
       <c r="A16">
         <f>Insert!A16</f>
         <v>0</v>
